--- a/data/input/test/20210824_UNICEF_DeliveryTable.xlsx
+++ b/data/input/test/20210824_UNICEF_DeliveryTable.xlsx
@@ -16742,8 +16742,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -16761,6 +16761,9 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -16806,6 +16809,23 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -16954,7 +16974,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B4365B8-F785-4110-8EAA-AB28FF251BA4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A024509E-A672-4C4B-9784-2605F6593418}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
